--- a/pontinho2/outputs/gramatica/arg-list.xlsx
+++ b/pontinho2/outputs/gramatica/arg-list.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>=</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>factor</t>
   </si>
@@ -72,7 +69,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -91,9 +88,6 @@
       <c r="E1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
@@ -107,7 +101,7 @@
       <c r="A3" s="0">
         <v>1</v>
       </c>
-      <c r="C3" s="0">
+      <c r="E3" s="0">
         <v>2</v>
       </c>
     </row>
@@ -115,7 +109,7 @@
       <c r="A4" s="0">
         <v>2</v>
       </c>
-      <c r="F4" s="0">
+      <c r="C4" s="0">
         <v>3</v>
       </c>
     </row>
@@ -132,15 +126,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>5</v>
-      </c>
-      <c r="F7" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
